--- a/mammography/training_log_file.xlsx
+++ b/mammography/training_log_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chevy\Documents\GitHub\Mammo_MaskRCNN\mammography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AEDF938C-3F84-4949-9514-E069A928C772}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BE98E86C-99FB-41B8-A8FA-544698866408}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11250" xr2:uid="{7CF1AEA4-05E0-4FED-BF9D-E3EBDBB98B5D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>Training description</t>
   </si>
@@ -109,13 +109,405 @@
   </si>
   <si>
     <t>Jupyter notebook</t>
+  </si>
+  <si>
+    <t>mammo20180729T0221</t>
+  </si>
+  <si>
+    <t>Mass train with augmentation (90,180, 270 degrees rotation)</t>
+  </si>
+  <si>
+    <t>20% of training set</t>
+  </si>
+  <si>
+    <t>29th July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    augmentation = iaa.SomeOf((2, 3), [ iaa.Fliplr(0.5), iaaFlipud(0.5), iaa.OneOf([iaa.Affine(rotate=90), iaa.Affine(rotate=180), iaa.Affine(rotate=270)]),]</t>
+  </si>
+  <si>
+    <t>Resnet101, RPN train anchor = 512, RPN_NMS_THRESHOLD = 0.9, POST_NMS_ROI_TRAINING = 1500, POST_NMS_ROI_INFERENCE=2000</t>
+  </si>
+  <si>
+    <t>Resnet101, RPN train anchor = 256, RPN_NMS_THRESHOLD = 0.9, POST_NMS_ROI_TRAINING = 1500, POST_NMS_ROI_INFERENCE=2000</t>
+  </si>
+  <si>
+    <t>Mass train with augmentation (0,90,180,270 degrees rotation)</t>
+  </si>
+  <si>
+    <t>mammo20180730T0235</t>
+  </si>
+  <si>
+    <t>30th July 2018</t>
+  </si>
+  <si>
+    <t>mammo20180807T1402</t>
+  </si>
+  <si>
+    <t>8th August</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resnet101, RPN train anchor = 256, RPN_NMS_THRESHOLD = 0.9, POST_NMS_ROI_TRAINING = 1000, POST_NMS_ROI_INFERENCE=2000, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RPN_ANCHOR_RATIOS = [0.25, 0.5, 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>7thth August</t>
+  </si>
+  <si>
+    <t>mammo20180806T0203</t>
+  </si>
+  <si>
+    <t>10th August</t>
+  </si>
+  <si>
+    <r>
+      <t>Resnet101,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RPN train anchor = 1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, RPN_NMS_THRESHOLD = 0.9, POST_NMS_ROI_TRAINING = 1000, POST_NMS_ROI_INFERENCE=2000, RPN_ANCHOR_RATIOS = [0.5, 1, 2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resnet101, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RPN train anchor = 512</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, RPN_NMS_THRESHOLD = 0.9, POST_NMS_ROI_TRAINING = 1000, POST_NMS_ROI_INFERENCE=2000, RPN_ANCHOR_RATIOS = [0.5, 1, 2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Resnet101,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RPN train anchor = 512</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, RPN_NMS_THRESHOLD = 0.9, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POST_NMS_ROI_TRAINING = 1500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, POST_NMS_ROI_INFERENCE=2000, RPN_ANCHOR_RATIOS = [0.5, 1, 2]</t>
+    </r>
+  </si>
+  <si>
+    <t>mammo20180812T0235</t>
+  </si>
+  <si>
+    <r>
+      <t>Resnet101,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RPN train anchor = 512</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RPN_NMS_THRESHOLD = 0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POST_NMS_ROI_TRAINING = 1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, POST_NMS_ROI_INFERENCE=2000, RPN_ANCHOR_RATIOS = [0.5, 1, 2]</t>
+    </r>
+  </si>
+  <si>
+    <t>mammo20180813T1321</t>
+  </si>
+  <si>
+    <t>mammo20180810T0325</t>
+  </si>
+  <si>
+    <t>12th Aug</t>
+  </si>
+  <si>
+    <t>13th Aug</t>
+  </si>
+  <si>
+    <t>14th Aug</t>
+  </si>
+  <si>
+    <t>mammo20180814T0051</t>
+  </si>
+  <si>
+    <r>
+      <t>Resnet101,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RPN train anchor = 512, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RPN_NMS_THRESHOLD = 0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POST_NMS_ROI_TRAINING = 1000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> POST_NMS_ROI_INFERENCE=2000, RPN_ANCHOR_RATIOS = [0.5, 1, 2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Resnet101,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RPN train anchor = 512, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RPN_NMS_THRESHOLD = 0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POST_NMS_ROI_TRAINING = 1000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> POST_NMS_ROI_INFERENCE=2000, RPN_ANCHOR_RATIOS = [0.5, 1, 2]</t>
+    </r>
+  </si>
+  <si>
+    <t>15th Aug</t>
+  </si>
+  <si>
+    <t>mammo20180814T1848</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +519,33 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -168,6 +587,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,21 +908,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF6899B-363E-435D-A9CC-613424F3E09B}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -509,7 +934,7 @@
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -532,7 +957,7 @@
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -552,7 +977,7 @@
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -572,7 +997,7 @@
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -592,7 +1017,7 @@
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -643,7 +1068,7 @@
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -666,7 +1091,7 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -680,6 +1105,228 @@
       </c>
       <c r="G9" s="3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5">
+        <v>21</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="5">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="5">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="5">
+        <v>25</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="5">
+        <v>26</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="5">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="5">
+        <v>14</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="5">
+        <v>14</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
